--- a/src/test/resources/TestData/Xpaths.xlsx
+++ b/src/test/resources/TestData/Xpaths.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10711204\eclipse-workspace\Automation_UI\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10711204\Desktop\First push\ABDM_Automatrion_Framework\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0128DD49-B248-42F3-A5E3-DC85A0E5C685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7789D2C-67D4-4A61-9107-E6016042D167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData/Xpaths.xlsx
+++ b/src/test/resources/TestData/Xpaths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10711204\Desktop\First push\ABDM_Automatrion_Framework\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7789D2C-67D4-4A61-9107-E6016042D167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5943D68-E4E7-4F83-B60E-F0D3FB19D95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">WebElement Name </t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>//input[@aria-invalid='false']</t>
+  </si>
+  <si>
+    <t>Ministry of Health and Family Welfare</t>
+  </si>
+  <si>
+    <t>//ul//a[@href='https://www.mohfw.gov.in/']</t>
+  </si>
+  <si>
+    <t>Heal By India Logo at Header</t>
+  </si>
+  <si>
+    <t>//img[@class='logo-hbi']</t>
   </si>
 </sst>
 </file>
@@ -468,7 +480,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,6 +585,22 @@
         <v>23</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>

--- a/src/test/resources/TestData/Xpaths.xlsx
+++ b/src/test/resources/TestData/Xpaths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10711204\Desktop\First push\ABDM_Automatrion_Framework\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5943D68-E4E7-4F83-B60E-F0D3FB19D95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34966F6-AC14-4A90-B6C3-F409F170C9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t xml:space="preserve">WebElement Name </t>
   </si>
@@ -51,76 +51,109 @@
     <t>//img[contains(@class,'logo-nha')]</t>
   </si>
   <si>
+    <t>Login/Registration Button at Login Page Right top corner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Healthcare Professional Option </t>
+  </si>
+  <si>
+    <t>HPID Textbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submit Button </t>
+  </si>
+  <si>
+    <t>//button[text()='Submit']</t>
+  </si>
+  <si>
+    <t>Login With Password</t>
+  </si>
+  <si>
+    <t>//input[@id='password']</t>
+  </si>
+  <si>
+    <t>Password textbox to enter password</t>
+  </si>
+  <si>
+    <t>Login Button</t>
+  </si>
+  <si>
+    <t>//p[@class='MuiTypography-root MuiTypography-body1 doctor-name css-1oy63y8']</t>
+  </si>
+  <si>
+    <t>Dr name on Home Page after logged in</t>
+  </si>
+  <si>
+    <t>//button[text()='Logout']</t>
+  </si>
+  <si>
+    <t>Logout button on right top corner of home page</t>
+  </si>
+  <si>
+    <t>Login Button2</t>
+  </si>
+  <si>
+    <t>(//button[text()='Login'])[1]</t>
+  </si>
+  <si>
+    <t>//input[@aria-invalid='false']</t>
+  </si>
+  <si>
+    <t>Azadi Logo at Header at left</t>
+  </si>
+  <si>
+    <t>Ministry of Health and Family Welfare Link at footer</t>
+  </si>
+  <si>
+    <t>//div//img[@class='logo-azadi']</t>
+  </si>
+  <si>
+    <t>//div//span[text()='Healthcare Professional']</t>
+  </si>
+  <si>
+    <t>//div//button[text()='Login']</t>
+  </si>
+  <si>
+    <t>//div//button[text()='Login with Password']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodal Officer Option </t>
+  </si>
+  <si>
+    <t>Email ID text box</t>
+  </si>
+  <si>
+    <t>//input[@id='email']</t>
+  </si>
+  <si>
+    <t>Password text box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login Btn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profile Name after logged in </t>
+  </si>
+  <si>
+    <t>//p[text()=' Chandra DV']</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>//ul/a[@href='https://www.mohfw.gov.in/']</t>
+  </si>
+  <si>
+    <t>//span[text()='Nodal Officer']</t>
+  </si>
+  <si>
     <t>//button[text()='Login/Registration']</t>
   </si>
   <si>
-    <t>Login/Registration Button at Login Page Right top corner</t>
-  </si>
-  <si>
-    <t>//span[text()='Healthcare Professional']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Healthcare Professional Option </t>
-  </si>
-  <si>
-    <t>//button[text()='Login']</t>
-  </si>
-  <si>
-    <t>HPID Textbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submit Button </t>
-  </si>
-  <si>
-    <t>//button[text()='Submit']</t>
-  </si>
-  <si>
-    <t>//button[text()='Login with Password']</t>
-  </si>
-  <si>
-    <t>Login With Password</t>
-  </si>
-  <si>
-    <t>//input[@id='password']</t>
-  </si>
-  <si>
-    <t>Password textbox to enter password</t>
-  </si>
-  <si>
-    <t>Login Button</t>
-  </si>
-  <si>
-    <t>//p[@class='MuiTypography-root MuiTypography-body1 doctor-name css-1oy63y8']</t>
-  </si>
-  <si>
-    <t>Dr name on Home Page after logged in</t>
-  </si>
-  <si>
-    <t>//button[text()='Logout']</t>
-  </si>
-  <si>
-    <t>Logout button on right top corner of home page</t>
-  </si>
-  <si>
-    <t>Login Button2</t>
-  </si>
-  <si>
-    <t>(//button[text()='Login'])[1]</t>
-  </si>
-  <si>
-    <t>//input[@aria-invalid='false']</t>
-  </si>
-  <si>
-    <t>Ministry of Health and Family Welfare</t>
-  </si>
-  <si>
-    <t>//ul//a[@href='https://www.mohfw.gov.in/']</t>
-  </si>
-  <si>
-    <t>Heal By India Logo at Header</t>
-  </si>
-  <si>
-    <t>//img[@class='logo-hbi']</t>
+    <t>//*[@id='root']/div/header/div[1]/div/div[2]/div/button</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
@@ -477,19 +510,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.28515625" customWidth="1"/>
     <col min="2" max="2" width="75.28515625" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -497,7 +531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -505,121 +539,192 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" xr:uid="{E02873E6-0251-4E15-92AE-507B3718392F}"/>
+    <hyperlink ref="B32" r:id="rId1" xr:uid="{E02873E6-0251-4E15-92AE-507B3718392F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/src/test/resources/TestData/Xpaths.xlsx
+++ b/src/test/resources/TestData/Xpaths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10711204\Desktop\First push\ABDM_Automatrion_Framework\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34966F6-AC14-4A90-B6C3-F409F170C9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5270E25F-21FA-48DD-BAFD-DDB4E80EA6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t xml:space="preserve">WebElement Name </t>
   </si>
@@ -33,18 +33,6 @@
     <t>Xpaths</t>
   </si>
   <si>
-    <t>Hp@id&amp;03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password </t>
-  </si>
-  <si>
-    <t>71-3381-5821-8626</t>
-  </si>
-  <si>
-    <t>HPID</t>
-  </si>
-  <si>
     <t>MOHFW Logo</t>
   </si>
   <si>
@@ -138,22 +126,28 @@
     <t>//p[text()=' Chandra DV']</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>//ul/a[@href='https://www.mohfw.gov.in/']</t>
-  </si>
-  <si>
     <t>//span[text()='Nodal Officer']</t>
   </si>
   <si>
     <t>//button[text()='Login/Registration']</t>
   </si>
   <si>
-    <t>//*[@id='root']/div/header/div[1]/div/div[2]/div/button</t>
-  </si>
-  <si>
-    <t>email</t>
+    <t>//ul//a[@href='https://www.mohfw.gov.in/']</t>
+  </si>
+  <si>
+    <t>NODAL OFFICER HOME PAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profile Option </t>
+  </si>
+  <si>
+    <t>//div[contains(text(),'My Profile')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email ID </t>
+  </si>
+  <si>
+    <t>//p[text()='Chandradv@gmail.com']</t>
   </si>
 </sst>
 </file>
@@ -192,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +196,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,7 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
@@ -228,6 +228,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -510,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +526,7 @@
     <col min="3" max="3" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -531,202 +534,183 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B32" r:id="rId1" xr:uid="{E02873E6-0251-4E15-92AE-507B3718392F}"/>
-  </hyperlinks>
+  <mergeCells count="1">
+    <mergeCell ref="A22:B22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>